--- a/Config/Positions.xlsx
+++ b/Config/Positions.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://charitede.sharepoint.com/sites/LatentGenderPhDProject/Shared Documents/Config/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hawis\OneDrive - Charité - Universitätsmedizin Berlin\LatentGender\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="589" documentId="8_{802F656A-54DF-477B-AAC9-46C3F66CCC20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5618CEC1-2FBE-41EB-9AB9-6621AC89D7DA}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E2A0466-6E9A-4840-9E41-B38CBB39105C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1AE85478-FA94-45C0-A214-B8587078DCF9}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="86">
   <si>
     <t>felt_discriminated_gender_12mo</t>
   </si>
@@ -282,53 +282,14 @@
     <t>risk taking</t>
   </si>
   <si>
-    <t>0.5</t>
-  </si>
-  <si>
-    <t>0.6</t>
-  </si>
-  <si>
-    <t>0.2</t>
-  </si>
-  <si>
-    <t>0.1</t>
-  </si>
-  <si>
-    <t>0.4</t>
-  </si>
-  <si>
-    <t>0.3</t>
-  </si>
-  <si>
-    <t>0.8</t>
-  </si>
-  <si>
-    <t>0.7</t>
-  </si>
-  <si>
     <t>east german residence</t>
-  </si>
-  <si>
-    <t>0.05</t>
-  </si>
-  <si>
-    <t>0.25</t>
-  </si>
-  <si>
-    <t>0.9</t>
-  </si>
-  <si>
-    <t>0.95</t>
-  </si>
-  <si>
-    <t>0.35</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -340,12 +301,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -371,9 +326,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -687,27 +644,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6753DE3F-F6E0-4C1E-A3CD-3A2E123DBB1C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F33AE484-C34D-47AB-A29D-44323F6EC89B}">
   <dimension ref="A1:E76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="42.44140625" customWidth="1"/>
+    <col min="2" max="3" width="11.5546875" style="3"/>
     <col min="4" max="4" width="20.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -717,15 +675,15 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>31</v>
       </c>
-      <c r="B2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C2" t="s">
-        <v>92</v>
+      <c r="B2" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0.7</v>
       </c>
       <c r="D2" t="s">
         <v>40</v>
@@ -734,15 +692,15 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>44</v>
       </c>
-      <c r="B3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C3" t="s">
-        <v>91</v>
+      <c r="B3" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.8</v>
       </c>
       <c r="D3" t="s">
         <v>40</v>
@@ -751,15 +709,15 @@
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>60</v>
       </c>
-      <c r="B4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C4" t="s">
-        <v>85</v>
+      <c r="B4" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.5</v>
       </c>
       <c r="D4" t="s">
         <v>40</v>
@@ -768,15 +726,15 @@
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" t="s">
-        <v>85</v>
-      </c>
-      <c r="C5" t="s">
-        <v>89</v>
+      <c r="B5" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.4</v>
       </c>
       <c r="D5" t="s">
         <v>40</v>
@@ -785,15 +743,15 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>14</v>
       </c>
-      <c r="B6" t="s">
-        <v>88</v>
-      </c>
-      <c r="C6" t="s">
-        <v>96</v>
+      <c r="B6" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.7</v>
       </c>
       <c r="D6" t="s">
         <v>23</v>
@@ -802,15 +760,15 @@
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>71</v>
       </c>
-      <c r="B7" t="s">
-        <v>86</v>
-      </c>
-      <c r="C7" t="s">
-        <v>94</v>
+      <c r="B7" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.6</v>
       </c>
       <c r="D7" t="s">
         <v>23</v>
@@ -819,15 +777,15 @@
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="B8" t="s">
-        <v>90</v>
-      </c>
-      <c r="C8" t="s">
-        <v>96</v>
+      <c r="B8" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.5</v>
       </c>
       <c r="D8" t="s">
         <v>23</v>
@@ -840,11 +798,11 @@
       <c r="A9" t="s">
         <v>46</v>
       </c>
-      <c r="B9" t="s">
-        <v>89</v>
-      </c>
-      <c r="C9" t="s">
-        <v>96</v>
+      <c r="B9" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0.6</v>
       </c>
       <c r="D9" t="s">
         <v>23</v>
@@ -857,11 +815,11 @@
       <c r="A10" t="s">
         <v>42</v>
       </c>
-      <c r="B10" t="s">
-        <v>85</v>
-      </c>
-      <c r="C10" t="s">
-        <v>86</v>
+      <c r="B10" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0.6</v>
       </c>
       <c r="D10" t="s">
         <v>43</v>
@@ -870,15 +828,15 @@
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>19</v>
       </c>
-      <c r="B11" t="s">
-        <v>85</v>
-      </c>
-      <c r="C11" t="s">
-        <v>96</v>
+      <c r="B11" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0.3</v>
       </c>
       <c r="D11" t="s">
         <v>24</v>
@@ -891,11 +849,11 @@
       <c r="A12" t="s">
         <v>32</v>
       </c>
-      <c r="B12" t="s">
-        <v>85</v>
-      </c>
-      <c r="C12" t="s">
-        <v>87</v>
+      <c r="B12" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0.2</v>
       </c>
       <c r="D12" t="s">
         <v>24</v>
@@ -908,11 +866,11 @@
       <c r="A13" t="s">
         <v>0</v>
       </c>
-      <c r="B13" t="s">
-        <v>87</v>
-      </c>
-      <c r="C13" t="s">
-        <v>96</v>
+      <c r="B13" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0.5</v>
       </c>
       <c r="D13" t="s">
         <v>24</v>
@@ -925,14 +883,14 @@
       <c r="A14" t="s">
         <v>9</v>
       </c>
-      <c r="B14" t="s">
-        <v>87</v>
-      </c>
-      <c r="C14" t="s">
-        <v>85</v>
+      <c r="B14" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0.5</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="E14" t="s">
         <v>69</v>
@@ -942,11 +900,11 @@
       <c r="A15" t="s">
         <v>33</v>
       </c>
-      <c r="B15" t="s">
-        <v>90</v>
-      </c>
-      <c r="C15" t="s">
-        <v>85</v>
+      <c r="B15" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="C15" s="3">
+        <v>0.5</v>
       </c>
       <c r="D15" t="s">
         <v>26</v>
@@ -959,11 +917,11 @@
       <c r="A16" t="s">
         <v>1</v>
       </c>
-      <c r="B16" t="s">
-        <v>86</v>
-      </c>
-      <c r="C16" t="s">
-        <v>96</v>
+      <c r="B16" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="C16" s="3">
+        <v>0.7</v>
       </c>
       <c r="D16" t="s">
         <v>25</v>
@@ -976,11 +934,11 @@
       <c r="A17" t="s">
         <v>5</v>
       </c>
-      <c r="B17" t="s">
-        <v>92</v>
-      </c>
-      <c r="C17" t="s">
-        <v>96</v>
+      <c r="B17" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="C17" s="3">
+        <v>0.6</v>
       </c>
       <c r="D17" t="s">
         <v>25</v>
@@ -993,11 +951,11 @@
       <c r="A18" t="s">
         <v>34</v>
       </c>
-      <c r="B18" t="s">
-        <v>91</v>
-      </c>
-      <c r="C18" t="s">
-        <v>96</v>
+      <c r="B18" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="C18" s="3">
+        <v>0.9</v>
       </c>
       <c r="D18" t="s">
         <v>25</v>
@@ -1010,11 +968,11 @@
       <c r="A19" t="s">
         <v>35</v>
       </c>
-      <c r="B19" t="s">
-        <v>90</v>
-      </c>
-      <c r="C19" t="s">
-        <v>92</v>
+      <c r="B19" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="C19" s="3">
+        <v>0.7</v>
       </c>
       <c r="D19" t="s">
         <v>25</v>
@@ -1027,11 +985,11 @@
       <c r="A20" t="s">
         <v>36</v>
       </c>
-      <c r="B20" t="s">
-        <v>90</v>
-      </c>
-      <c r="C20" t="s">
-        <v>86</v>
+      <c r="B20" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="C20" s="3">
+        <v>0.6</v>
       </c>
       <c r="D20" t="s">
         <v>25</v>
@@ -1044,11 +1002,11 @@
       <c r="A21" t="s">
         <v>12</v>
       </c>
-      <c r="B21" t="s">
-        <v>86</v>
-      </c>
-      <c r="C21" t="s">
-        <v>91</v>
+      <c r="B21" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="C21" s="3">
+        <v>0.8</v>
       </c>
       <c r="D21" t="s">
         <v>27</v>
@@ -1061,11 +1019,11 @@
       <c r="A22" t="s">
         <v>4</v>
       </c>
-      <c r="B22" t="s">
-        <v>96</v>
-      </c>
-      <c r="C22" t="s">
-        <v>96</v>
+      <c r="B22" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="C22" s="3">
+        <v>0.9</v>
       </c>
       <c r="D22" t="s">
         <v>25</v>
@@ -1078,11 +1036,11 @@
       <c r="A23" t="s">
         <v>10</v>
       </c>
-      <c r="B23" t="s">
-        <v>95</v>
-      </c>
-      <c r="C23" t="s">
-        <v>97</v>
+      <c r="B23" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="C23" s="3">
+        <v>0.9</v>
       </c>
       <c r="D23" t="s">
         <v>25</v>
@@ -1095,11 +1053,11 @@
       <c r="A24" t="s">
         <v>11</v>
       </c>
-      <c r="B24" t="s">
-        <v>98</v>
-      </c>
-      <c r="C24" t="s">
-        <v>97</v>
+      <c r="B24" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="C24" s="3">
+        <v>0.9</v>
       </c>
       <c r="D24" t="s">
         <v>25</v>
@@ -1112,11 +1070,11 @@
       <c r="A25" t="s">
         <v>2</v>
       </c>
-      <c r="B25" t="s">
-        <v>90</v>
-      </c>
-      <c r="C25" t="s">
-        <v>91</v>
+      <c r="B25" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="C25" s="3">
+        <v>0.8</v>
       </c>
       <c r="D25" t="s">
         <v>25</v>
@@ -1129,11 +1087,11 @@
       <c r="A26" t="s">
         <v>20</v>
       </c>
-      <c r="B26" t="s">
-        <v>88</v>
-      </c>
-      <c r="C26" t="s">
-        <v>97</v>
+      <c r="B26" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C26" s="3">
+        <v>0.9</v>
       </c>
       <c r="D26" t="s">
         <v>25</v>
@@ -1146,11 +1104,11 @@
       <c r="A27" t="s">
         <v>30</v>
       </c>
-      <c r="B27" t="s">
-        <v>89</v>
-      </c>
-      <c r="C27" t="s">
-        <v>97</v>
+      <c r="B27" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C27" s="3">
+        <v>0.8</v>
       </c>
       <c r="D27" t="s">
         <v>25</v>
@@ -1163,11 +1121,11 @@
       <c r="A28" t="s">
         <v>13</v>
       </c>
-      <c r="B28" t="s">
-        <v>85</v>
-      </c>
-      <c r="C28" t="s">
-        <v>97</v>
+      <c r="B28" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C28" s="3">
+        <v>0.7</v>
       </c>
       <c r="D28" t="s">
         <v>25</v>
@@ -1180,11 +1138,11 @@
       <c r="A29" t="s">
         <v>18</v>
       </c>
-      <c r="B29" t="s">
-        <v>86</v>
-      </c>
-      <c r="C29" t="s">
-        <v>97</v>
+      <c r="B29" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C29" s="3">
+        <v>0.6</v>
       </c>
       <c r="D29" t="s">
         <v>25</v>
@@ -1197,11 +1155,11 @@
       <c r="A30" t="s">
         <v>17</v>
       </c>
-      <c r="B30" t="s">
-        <v>86</v>
-      </c>
-      <c r="C30" t="s">
-        <v>97</v>
+      <c r="B30" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C30" s="3">
+        <v>0.5</v>
       </c>
       <c r="D30" t="s">
         <v>25</v>
@@ -1214,11 +1172,11 @@
       <c r="A31" t="s">
         <v>6</v>
       </c>
-      <c r="B31" t="s">
-        <v>85</v>
-      </c>
-      <c r="C31" t="s">
-        <v>96</v>
+      <c r="B31" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C31" s="3">
+        <v>0.8</v>
       </c>
       <c r="D31" t="s">
         <v>25</v>
@@ -1231,11 +1189,11 @@
       <c r="A32" t="s">
         <v>54</v>
       </c>
-      <c r="B32" t="s">
-        <v>87</v>
-      </c>
-      <c r="C32" t="s">
-        <v>94</v>
+      <c r="B32" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C32" s="3">
+        <v>0.05</v>
       </c>
       <c r="D32" t="s">
         <v>28</v>
@@ -1248,11 +1206,11 @@
       <c r="A33" t="s">
         <v>21</v>
       </c>
-      <c r="B33" t="s">
-        <v>85</v>
-      </c>
-      <c r="C33" t="s">
-        <v>94</v>
+      <c r="B33" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="C33" s="3">
+        <v>0.05</v>
       </c>
       <c r="D33" t="s">
         <v>28</v>
@@ -1265,11 +1223,11 @@
       <c r="A34" t="s">
         <v>22</v>
       </c>
-      <c r="B34" t="s">
-        <v>92</v>
-      </c>
-      <c r="C34" t="s">
-        <v>92</v>
+      <c r="B34" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="C34" s="3">
+        <v>0.8</v>
       </c>
       <c r="D34" t="s">
         <v>28</v>
@@ -1282,11 +1240,11 @@
       <c r="A35" t="s">
         <v>15</v>
       </c>
-      <c r="B35" t="s">
-        <v>89</v>
-      </c>
-      <c r="C35" t="s">
-        <v>94</v>
+      <c r="B35" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="C35" s="3">
+        <v>0.05</v>
       </c>
       <c r="D35" t="s">
         <v>28</v>
@@ -1299,11 +1257,11 @@
       <c r="A36" t="s">
         <v>56</v>
       </c>
-      <c r="B36" t="s">
-        <v>91</v>
-      </c>
-      <c r="C36" t="s">
-        <v>90</v>
+      <c r="B36" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C36" s="3">
+        <v>0.05</v>
       </c>
       <c r="D36" t="s">
         <v>28</v>
@@ -1316,11 +1274,11 @@
       <c r="A37" t="s">
         <v>57</v>
       </c>
-      <c r="B37" t="s">
-        <v>87</v>
-      </c>
-      <c r="C37" t="s">
-        <v>90</v>
+      <c r="B37" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="C37" s="3">
+        <v>0.05</v>
       </c>
       <c r="D37" t="s">
         <v>28</v>
@@ -1333,11 +1291,11 @@
       <c r="A38" t="s">
         <v>58</v>
       </c>
-      <c r="B38" t="s">
-        <v>90</v>
-      </c>
-      <c r="C38" t="s">
-        <v>94</v>
+      <c r="B38" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="C38" s="3">
+        <v>0.05</v>
       </c>
       <c r="D38" t="s">
         <v>28</v>
@@ -1350,11 +1308,11 @@
       <c r="A39" t="s">
         <v>55</v>
       </c>
-      <c r="B39" t="s">
-        <v>89</v>
-      </c>
-      <c r="C39" t="s">
-        <v>94</v>
+      <c r="B39" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="C39" s="3">
+        <v>0.05</v>
       </c>
       <c r="D39" t="s">
         <v>28</v>
@@ -1367,11 +1325,11 @@
       <c r="A40" t="s">
         <v>53</v>
       </c>
-      <c r="B40" t="s">
-        <v>87</v>
-      </c>
-      <c r="C40" t="s">
-        <v>88</v>
+      <c r="B40" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="C40" s="3">
+        <v>0.1</v>
       </c>
       <c r="D40" t="s">
         <v>66</v>
@@ -1384,11 +1342,11 @@
       <c r="A41" t="s">
         <v>50</v>
       </c>
-      <c r="B41" t="s">
-        <v>90</v>
-      </c>
-      <c r="C41" t="s">
-        <v>88</v>
+      <c r="B41" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="C41" s="3">
+        <v>0.1</v>
       </c>
       <c r="D41" t="s">
         <v>66</v>
@@ -1401,11 +1359,11 @@
       <c r="A42" t="s">
         <v>51</v>
       </c>
-      <c r="B42" t="s">
-        <v>89</v>
-      </c>
-      <c r="C42" t="s">
-        <v>88</v>
+      <c r="B42" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="C42" s="3">
+        <v>0.1</v>
       </c>
       <c r="D42" t="s">
         <v>66</v>
@@ -1418,11 +1376,11 @@
       <c r="A43" t="s">
         <v>52</v>
       </c>
-      <c r="B43" t="s">
-        <v>91</v>
-      </c>
-      <c r="C43" t="s">
-        <v>88</v>
+      <c r="B43" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="C43" s="3">
+        <v>0.1</v>
       </c>
       <c r="D43" t="s">
         <v>66</v>
@@ -1435,11 +1393,11 @@
       <c r="A44" t="s">
         <v>48</v>
       </c>
-      <c r="B44" t="s">
-        <v>92</v>
-      </c>
-      <c r="C44" t="s">
-        <v>88</v>
+      <c r="B44" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="C44" s="3">
+        <v>0.1</v>
       </c>
       <c r="D44" t="s">
         <v>66</v>
@@ -1452,11 +1410,11 @@
       <c r="A45" t="s">
         <v>49</v>
       </c>
-      <c r="B45" t="s">
-        <v>86</v>
-      </c>
-      <c r="C45" t="s">
-        <v>88</v>
+      <c r="B45" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="C45" s="3">
+        <v>0.1</v>
       </c>
       <c r="D45" t="s">
         <v>66</v>
@@ -1469,11 +1427,11 @@
       <c r="A46" t="s">
         <v>59</v>
       </c>
-      <c r="B46" t="s">
-        <v>90</v>
-      </c>
-      <c r="C46" t="s">
-        <v>90</v>
+      <c r="B46" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="C46" s="3">
+        <v>0.3</v>
       </c>
       <c r="D46" t="s">
         <v>67</v>
@@ -1486,11 +1444,11 @@
       <c r="A47" t="s">
         <v>47</v>
       </c>
-      <c r="B47" t="s">
-        <v>92</v>
-      </c>
-      <c r="C47" t="s">
-        <v>90</v>
+      <c r="B47" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="C47" s="3">
+        <v>0.3</v>
       </c>
       <c r="D47" t="s">
         <v>67</v>
@@ -1503,11 +1461,11 @@
       <c r="A48" t="s">
         <v>45</v>
       </c>
-      <c r="B48" t="s">
-        <v>92</v>
-      </c>
-      <c r="C48" t="s">
-        <v>86</v>
+      <c r="B48" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="C48" s="3">
+        <v>0.6</v>
       </c>
       <c r="D48" t="s">
         <v>27</v>
@@ -1520,11 +1478,11 @@
       <c r="A49" t="s">
         <v>61</v>
       </c>
-      <c r="B49" t="s">
-        <v>92</v>
-      </c>
-      <c r="C49" t="s">
-        <v>91</v>
+      <c r="B49" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="C49" s="3">
+        <v>0.8</v>
       </c>
       <c r="D49" t="s">
         <v>27</v>
@@ -1537,11 +1495,11 @@
       <c r="A50" t="s">
         <v>29</v>
       </c>
-      <c r="B50" t="s">
-        <v>89</v>
-      </c>
-      <c r="C50" t="s">
-        <v>91</v>
+      <c r="B50" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="C50" s="3">
+        <v>0.7</v>
       </c>
       <c r="D50" t="s">
         <v>27</v>
@@ -1554,11 +1512,11 @@
       <c r="A51" t="s">
         <v>3</v>
       </c>
-      <c r="B51" t="s">
-        <v>92</v>
-      </c>
-      <c r="C51" t="s">
-        <v>97</v>
+      <c r="B51" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="C51" s="3">
+        <v>0.9</v>
       </c>
       <c r="D51" t="s">
         <v>27</v>
@@ -1571,11 +1529,11 @@
       <c r="A52" t="s">
         <v>16</v>
       </c>
-      <c r="B52" t="s">
-        <v>91</v>
-      </c>
-      <c r="C52" t="s">
-        <v>97</v>
+      <c r="B52" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C52" s="3">
+        <v>0.9</v>
       </c>
       <c r="D52" t="s">
         <v>27</v>
@@ -1586,13 +1544,13 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>93</v>
-      </c>
-      <c r="B54" t="s">
-        <v>91</v>
-      </c>
-      <c r="C54" t="s">
-        <v>92</v>
+        <v>85</v>
+      </c>
+      <c r="B54" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="C54" s="3">
+        <v>0.7</v>
       </c>
       <c r="D54" t="s">
         <v>40</v>
@@ -1605,11 +1563,11 @@
       <c r="A55" t="s">
         <v>72</v>
       </c>
-      <c r="B55" t="s">
-        <v>86</v>
-      </c>
-      <c r="C55" t="s">
-        <v>88</v>
+      <c r="B55" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="C55" s="3">
+        <v>0.1</v>
       </c>
       <c r="D55" t="s">
         <v>40</v>
@@ -1622,11 +1580,11 @@
       <c r="A56" t="s">
         <v>63</v>
       </c>
-      <c r="B56" t="s">
-        <v>87</v>
-      </c>
-      <c r="C56" t="s">
-        <v>91</v>
+      <c r="B56" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="C56" s="3">
+        <v>0.8</v>
       </c>
       <c r="D56" t="s">
         <v>40</v>
@@ -1639,11 +1597,11 @@
       <c r="A57" t="s">
         <v>73</v>
       </c>
-      <c r="B57" t="s">
-        <v>85</v>
-      </c>
-      <c r="C57" t="s">
-        <v>87</v>
+      <c r="B57" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C57" s="3">
+        <v>0.2</v>
       </c>
       <c r="D57" t="s">
         <v>40</v>
@@ -1656,11 +1614,11 @@
       <c r="A58" t="s">
         <v>60</v>
       </c>
-      <c r="B58" t="s">
-        <v>91</v>
-      </c>
-      <c r="C58" t="s">
-        <v>85</v>
+      <c r="B58" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="C58" s="3">
+        <v>0.5</v>
       </c>
       <c r="D58" t="s">
         <v>40</v>
@@ -1673,11 +1631,11 @@
       <c r="A59" t="s">
         <v>58</v>
       </c>
-      <c r="B59" t="s">
-        <v>90</v>
-      </c>
-      <c r="C59" t="s">
-        <v>88</v>
+      <c r="B59" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="C59" s="3">
+        <v>0.1</v>
       </c>
       <c r="D59" t="s">
         <v>66</v>
@@ -1690,11 +1648,11 @@
       <c r="A60" t="s">
         <v>42</v>
       </c>
-      <c r="B60" t="s">
-        <v>85</v>
-      </c>
-      <c r="C60" t="s">
-        <v>86</v>
+      <c r="B60" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C60" s="3">
+        <v>0.6</v>
       </c>
       <c r="D60" t="s">
         <v>43</v>
@@ -1707,11 +1665,11 @@
       <c r="A61" t="s">
         <v>55</v>
       </c>
-      <c r="B61" t="s">
-        <v>89</v>
-      </c>
-      <c r="C61" t="s">
-        <v>88</v>
+      <c r="B61" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="C61" s="3">
+        <v>0.1</v>
       </c>
       <c r="D61" t="s">
         <v>66</v>
@@ -1724,11 +1682,11 @@
       <c r="A62" t="s">
         <v>9</v>
       </c>
-      <c r="B62" t="s">
-        <v>87</v>
-      </c>
-      <c r="C62" t="s">
-        <v>85</v>
+      <c r="B62" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="C62" s="3">
+        <v>0.5</v>
       </c>
       <c r="D62" t="s">
         <v>40</v>
@@ -1741,11 +1699,11 @@
       <c r="A63" t="s">
         <v>64</v>
       </c>
-      <c r="B63" t="s">
-        <v>85</v>
-      </c>
-      <c r="C63" t="s">
-        <v>89</v>
+      <c r="B63" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C63" s="3">
+        <v>0.4</v>
       </c>
       <c r="D63" t="s">
         <v>40</v>
@@ -1758,11 +1716,11 @@
       <c r="A64" t="s">
         <v>65</v>
       </c>
-      <c r="B64" t="s">
-        <v>87</v>
-      </c>
-      <c r="C64" t="s">
-        <v>88</v>
+      <c r="B64" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="C64" s="3">
+        <v>0.1</v>
       </c>
       <c r="D64" t="s">
         <v>66</v>
@@ -1775,11 +1733,11 @@
       <c r="A65" t="s">
         <v>74</v>
       </c>
-      <c r="B65" t="s">
-        <v>92</v>
-      </c>
-      <c r="C65" t="s">
-        <v>91</v>
+      <c r="B65" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="C65" s="3">
+        <v>0.8</v>
       </c>
       <c r="D65" t="s">
         <v>27</v>
@@ -1792,11 +1750,11 @@
       <c r="A66" t="s">
         <v>75</v>
       </c>
-      <c r="B66" t="s">
-        <v>92</v>
-      </c>
-      <c r="C66" t="s">
-        <v>86</v>
+      <c r="B66" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="C66" s="3">
+        <v>0.6</v>
       </c>
       <c r="D66" t="s">
         <v>27</v>
@@ -1809,11 +1767,11 @@
       <c r="A67" t="s">
         <v>76</v>
       </c>
-      <c r="B67" t="s">
-        <v>90</v>
-      </c>
-      <c r="C67" t="s">
-        <v>90</v>
+      <c r="B67" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="C67" s="3">
+        <v>0.3</v>
       </c>
       <c r="D67" t="s">
         <v>67</v>
@@ -1826,11 +1784,11 @@
       <c r="A68" t="s">
         <v>77</v>
       </c>
-      <c r="B68" t="s">
-        <v>92</v>
-      </c>
-      <c r="C68" t="s">
-        <v>90</v>
+      <c r="B68" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="C68" s="3">
+        <v>0.3</v>
       </c>
       <c r="D68" t="s">
         <v>67</v>
@@ -1843,11 +1801,11 @@
       <c r="A69" t="s">
         <v>78</v>
       </c>
-      <c r="B69" t="s">
-        <v>90</v>
-      </c>
-      <c r="C69" t="s">
-        <v>92</v>
+      <c r="B69" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="C69" s="3">
+        <v>0.7</v>
       </c>
       <c r="D69" t="s">
         <v>25</v>
@@ -1860,11 +1818,11 @@
       <c r="A70" t="s">
         <v>79</v>
       </c>
-      <c r="B70" t="s">
-        <v>90</v>
-      </c>
-      <c r="C70" t="s">
-        <v>86</v>
+      <c r="B70" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="C70" s="3">
+        <v>0.6</v>
       </c>
       <c r="D70" t="s">
         <v>25</v>
@@ -1877,11 +1835,11 @@
       <c r="A71" t="s">
         <v>80</v>
       </c>
-      <c r="B71" t="s">
-        <v>90</v>
-      </c>
-      <c r="C71" t="s">
-        <v>85</v>
+      <c r="B71" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="C71" s="3">
+        <v>0.5</v>
       </c>
       <c r="D71" t="s">
         <v>26</v>
@@ -1894,11 +1852,11 @@
       <c r="A72" t="s">
         <v>62</v>
       </c>
-      <c r="B72" t="s">
-        <v>86</v>
-      </c>
-      <c r="C72" t="s">
-        <v>91</v>
+      <c r="B72" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="C72" s="3">
+        <v>0.8</v>
       </c>
       <c r="D72" t="s">
         <v>27</v>
@@ -1911,11 +1869,11 @@
       <c r="A73" t="s">
         <v>81</v>
       </c>
-      <c r="B73" t="s">
-        <v>89</v>
-      </c>
-      <c r="C73" t="s">
-        <v>91</v>
+      <c r="B73" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="C73" s="3">
+        <v>0.7</v>
       </c>
       <c r="D73" t="s">
         <v>27</v>
@@ -1928,14 +1886,14 @@
       <c r="A74" t="s">
         <v>82</v>
       </c>
-      <c r="B74" t="s">
-        <v>92</v>
-      </c>
-      <c r="C74" t="s">
-        <v>92</v>
+      <c r="B74" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="C74" s="3">
+        <v>0.8</v>
       </c>
       <c r="D74" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E74" t="s">
         <v>70</v>
@@ -1945,11 +1903,11 @@
       <c r="A75" t="s">
         <v>83</v>
       </c>
-      <c r="B75" t="s">
-        <v>85</v>
-      </c>
-      <c r="C75" t="s">
-        <v>91</v>
+      <c r="B75" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C75" s="3">
+        <v>0.8</v>
       </c>
       <c r="D75" t="s">
         <v>27</v>
@@ -1962,11 +1920,11 @@
       <c r="A76" t="s">
         <v>84</v>
       </c>
-      <c r="B76" t="s">
-        <v>90</v>
-      </c>
-      <c r="C76" t="s">
-        <v>91</v>
+      <c r="B76" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="C76" s="3">
+        <v>0.8</v>
       </c>
       <c r="D76" t="s">
         <v>25</v>
@@ -1976,38 +1934,11 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D52">
-    <sortCondition ref="D2:D52"/>
-    <sortCondition ref="B2:B52"/>
-    <sortCondition descending="1" ref="C2:C52"/>
-  </sortState>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a02994ae-d6cf-450e-85c4-1140a79b423c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="f2cd2d01-df26-4de2-9efd-040a549e2429" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010038EC001EAF619D4C9DA16715C5227D79" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e907f32a0c1207c859ebb11d2da383e5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a02994ae-d6cf-450e-85c4-1140a79b423c" xmlns:ns3="f2cd2d01-df26-4de2-9efd-040a549e2429" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9aedcbda70484b030deb52034458199f" ns2:_="" ns3:_="">
     <xsd:import namespace="a02994ae-d6cf-450e-85c4-1140a79b423c"/>
@@ -2202,32 +2133,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{895B74CD-8F10-42E0-8F48-2EE966488E3C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="a02994ae-d6cf-450e-85c4-1140a79b423c"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="f2cd2d01-df26-4de2-9efd-040a549e2429"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{05554BCD-4BD8-46A8-AB25-D4EC5D1917F7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a02994ae-d6cf-450e-85c4-1140a79b423c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="f2cd2d01-df26-4de2-9efd-040a549e2429" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{21FBFE00-0358-4B45-AE02-4428DEF36A32}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2244,4 +2170,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{05554BCD-4BD8-46A8-AB25-D4EC5D1917F7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{895B74CD-8F10-42E0-8F48-2EE966488E3C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="a02994ae-d6cf-450e-85c4-1140a79b423c"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="f2cd2d01-df26-4de2-9efd-040a549e2429"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>